--- a/Base/Teams/Colts/Target Depth Data.xlsx
+++ b/Base/Teams/Colts/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3">
         <v>37</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>10</v>

--- a/Base/Teams/Colts/Target Depth Data.xlsx
+++ b/Base/Teams/Colts/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="C2">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>

--- a/Base/Teams/Colts/Target Depth Data.xlsx
+++ b/Base/Teams/Colts/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C3">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>7</v>

--- a/Base/Teams/Colts/Target Depth Data.xlsx
+++ b/Base/Teams/Colts/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="C2">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="D2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Colts/Target Depth Data.xlsx
+++ b/Base/Teams/Colts/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="C3">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>7</v>
